--- a/src/test/resources/dataProvider/RWC.xlsx
+++ b/src/test/resources/dataProvider/RWC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\celtic-main(3)\celtic-main\src\test\resources\dataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522AD238-B2E6-4BFA-A934-E39AC6427F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49E696-F7D8-4C41-8C4F-CD4BA3046FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="16" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="344">
   <si>
     <t>Fleet Expiration Year</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Inventory_Subtype</t>
   </si>
   <si>
-    <t>11AA1A</t>
-  </si>
-  <si>
     <t>FromNo</t>
   </si>
   <si>
@@ -961,9 +958,6 @@
     <t>MCENumber</t>
   </si>
   <si>
-    <t>44PM4S</t>
-  </si>
-  <si>
     <t xml:space="preserve">3423 </t>
   </si>
   <si>
@@ -1051,12 +1045,6 @@
     <t>GR01</t>
   </si>
   <si>
-    <t>GR10</t>
-  </si>
-  <si>
-    <t>BM4214241</t>
-  </si>
-  <si>
     <t>30810</t>
   </si>
   <si>
@@ -1088,6 +1076,15 @@
   </si>
   <si>
     <t>1-80000</t>
+  </si>
+  <si>
+    <t>186819</t>
+  </si>
+  <si>
+    <t>CC11S1</t>
+  </si>
+  <si>
+    <t>22SS3S</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,27 +1588,27 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>40</v>
@@ -1620,15 +1617,15 @@
         <v>41</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
@@ -1637,15 +1634,15 @@
         <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>40</v>
@@ -1654,17 +1651,17 @@
         <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1677,20 +1674,20 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>40</v>
@@ -1699,16 +1696,16 @@
         <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>40</v>
@@ -1717,15 +1714,15 @@
         <v>41</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>40</v>
@@ -1734,7 +1731,7 @@
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1761,1057 +1758,1057 @@
   <sheetData>
     <row r="1" spans="1:351" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" t="s">
         <v>147</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" t="s">
-        <v>111</v>
-      </c>
-      <c r="W1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" t="s">
-        <v>148</v>
       </c>
       <c r="Y1" t="s">
         <v>21</v>
       </c>
       <c r="Z1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB1" t="s">
         <v>150</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>151</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>152</v>
       </c>
-      <c r="AD1" t="s">
-        <v>153</v>
-      </c>
       <c r="AE1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s">
         <v>9</v>
       </c>
       <c r="AG1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>155</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" t="s">
         <v>156</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB1" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="BC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG1" t="s">
         <v>147</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>148</v>
       </c>
       <c r="BH1" t="s">
         <v>21</v>
       </c>
       <c r="BI1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK1" t="s">
         <v>150</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>151</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>152</v>
       </c>
-      <c r="BM1" t="s">
-        <v>153</v>
-      </c>
       <c r="BN1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>154</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>155</v>
       </c>
-      <c r="BR1" t="s">
-        <v>156</v>
-      </c>
       <c r="BS1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK1" t="s">
         <v>129</v>
       </c>
-      <c r="BT1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CD1" t="s">
+      <c r="CL1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CP1" t="s">
         <v>147</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CF1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>148</v>
       </c>
       <c r="CQ1" t="s">
         <v>21</v>
       </c>
       <c r="CR1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CS1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CT1" t="s">
         <v>150</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>151</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>152</v>
       </c>
-      <c r="CV1" t="s">
-        <v>153</v>
-      </c>
       <c r="CW1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CX1" t="s">
         <v>9</v>
       </c>
       <c r="CY1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ1" t="s">
         <v>154</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>155</v>
       </c>
-      <c r="DA1" t="s">
-        <v>156</v>
-      </c>
       <c r="DB1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DO1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DT1" t="s">
         <v>129</v>
       </c>
-      <c r="DC1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>143</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>145</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DM1" t="s">
+      <c r="DU1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY1" t="s">
         <v>147</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DO1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>148</v>
       </c>
       <c r="DZ1" t="s">
         <v>21</v>
       </c>
       <c r="EA1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="EB1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC1" t="s">
         <v>150</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>151</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>152</v>
       </c>
-      <c r="EE1" t="s">
-        <v>153</v>
-      </c>
       <c r="EF1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EG1" t="s">
         <v>9</v>
       </c>
       <c r="EH1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EI1" t="s">
         <v>154</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>155</v>
       </c>
-      <c r="EJ1" t="s">
-        <v>156</v>
-      </c>
       <c r="EK1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>97</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>144</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>122</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>99</v>
+      </c>
+      <c r="EX1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>100</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>103</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>104</v>
+      </c>
+      <c r="FC1" t="s">
         <v>129</v>
       </c>
-      <c r="EL1" t="s">
-        <v>160</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>96</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>97</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>98</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EV1" t="s">
+      <c r="FD1" t="s">
+        <v>130</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>127</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>148</v>
+      </c>
+      <c r="FH1" t="s">
         <v>147</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EX1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>101</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>130</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>131</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>128</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>111</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>148</v>
       </c>
       <c r="FI1" t="s">
         <v>21</v>
       </c>
       <c r="FJ1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FK1" t="s">
+        <v>149</v>
+      </c>
+      <c r="FL1" t="s">
         <v>150</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>151</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>152</v>
       </c>
-      <c r="FN1" t="s">
-        <v>153</v>
-      </c>
       <c r="FO1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FP1" t="s">
         <v>9</v>
       </c>
       <c r="FQ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="FR1" t="s">
         <v>154</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>155</v>
       </c>
-      <c r="FS1" t="s">
-        <v>156</v>
-      </c>
       <c r="FT1" t="s">
+        <v>128</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>142</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>95</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>141</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>143</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>97</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>144</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>122</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>146</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>99</v>
+      </c>
+      <c r="GG1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>100</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>102</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>104</v>
+      </c>
+      <c r="GL1" t="s">
         <v>129</v>
       </c>
-      <c r="FU1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>143</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>96</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>142</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>144</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>97</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>98</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>145</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>123</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE1" t="s">
+      <c r="GM1" t="s">
+        <v>130</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>127</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>110</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>148</v>
+      </c>
+      <c r="GQ1" t="s">
         <v>147</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>100</v>
-      </c>
-      <c r="GG1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>101</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>103</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>104</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>105</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>130</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>131</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>128</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>111</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>149</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>148</v>
       </c>
       <c r="GR1" t="s">
         <v>21</v>
       </c>
       <c r="GS1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="GT1" t="s">
+        <v>149</v>
+      </c>
+      <c r="GU1" t="s">
         <v>150</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GV1" t="s">
         <v>151</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GW1" t="s">
         <v>152</v>
       </c>
-      <c r="GW1" t="s">
-        <v>153</v>
-      </c>
       <c r="GX1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GY1" t="s">
         <v>9</v>
       </c>
       <c r="GZ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="HA1" t="s">
         <v>154</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>155</v>
       </c>
-      <c r="HB1" t="s">
-        <v>156</v>
-      </c>
       <c r="HC1" t="s">
+        <v>128</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>142</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>95</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>141</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>143</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>96</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>97</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>144</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>122</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>145</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>146</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>99</v>
+      </c>
+      <c r="HP1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>102</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>103</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>104</v>
+      </c>
+      <c r="HU1" t="s">
         <v>129</v>
       </c>
-      <c r="HD1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>143</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>96</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>142</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>144</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>97</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>98</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>145</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>123</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>146</v>
-      </c>
-      <c r="HN1" t="s">
+      <c r="HV1" t="s">
+        <v>130</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>127</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>110</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>148</v>
+      </c>
+      <c r="HZ1" t="s">
         <v>147</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>100</v>
-      </c>
-      <c r="HP1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>103</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>104</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>105</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>130</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>131</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>128</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>111</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>149</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>148</v>
       </c>
       <c r="IA1" t="s">
         <v>21</v>
       </c>
       <c r="IB1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="IC1" t="s">
+        <v>149</v>
+      </c>
+      <c r="ID1" t="s">
         <v>150</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IE1" t="s">
         <v>151</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IF1" t="s">
         <v>152</v>
       </c>
-      <c r="IF1" t="s">
-        <v>153</v>
-      </c>
       <c r="IG1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="IH1" t="s">
         <v>9</v>
       </c>
       <c r="II1" t="s">
+        <v>153</v>
+      </c>
+      <c r="IJ1" t="s">
         <v>154</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>155</v>
       </c>
-      <c r="IK1" t="s">
-        <v>156</v>
-      </c>
       <c r="IL1" t="s">
+        <v>128</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>212</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>142</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>95</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>141</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>96</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>97</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>144</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>122</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>99</v>
+      </c>
+      <c r="IY1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>102</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>103</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>104</v>
+      </c>
+      <c r="JD1" t="s">
         <v>129</v>
       </c>
-      <c r="IM1" t="s">
-        <v>213</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>143</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>96</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>142</v>
-      </c>
-      <c r="IQ1" t="s">
-        <v>144</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>97</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>98</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>145</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>123</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>146</v>
-      </c>
-      <c r="IW1" t="s">
+      <c r="JE1" t="s">
+        <v>130</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>127</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>148</v>
+      </c>
+      <c r="JI1" t="s">
         <v>147</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>100</v>
-      </c>
-      <c r="IY1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="IZ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>103</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>104</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>105</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>130</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>131</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>128</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>111</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>149</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>148</v>
       </c>
       <c r="JJ1" t="s">
         <v>21</v>
       </c>
       <c r="JK1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="JL1" t="s">
+        <v>149</v>
+      </c>
+      <c r="JM1" t="s">
         <v>150</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JN1" t="s">
         <v>151</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JO1" t="s">
         <v>152</v>
       </c>
-      <c r="JO1" t="s">
-        <v>153</v>
-      </c>
       <c r="JP1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="JQ1" t="s">
         <v>9</v>
       </c>
       <c r="JR1" t="s">
+        <v>153</v>
+      </c>
+      <c r="JS1" t="s">
         <v>154</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JT1" t="s">
         <v>155</v>
       </c>
-      <c r="JT1" t="s">
-        <v>156</v>
-      </c>
       <c r="JU1" t="s">
+        <v>128</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>213</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>142</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>95</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>141</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>96</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>97</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>144</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>122</v>
+      </c>
+      <c r="KE1" t="s">
+        <v>145</v>
+      </c>
+      <c r="KF1" t="s">
+        <v>146</v>
+      </c>
+      <c r="KG1" t="s">
+        <v>99</v>
+      </c>
+      <c r="KH1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="KI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="KJ1" t="s">
+        <v>102</v>
+      </c>
+      <c r="KK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="KL1" t="s">
+        <v>104</v>
+      </c>
+      <c r="KM1" t="s">
         <v>129</v>
       </c>
-      <c r="JV1" t="s">
-        <v>214</v>
-      </c>
-      <c r="JW1" t="s">
-        <v>143</v>
-      </c>
-      <c r="JX1" t="s">
-        <v>96</v>
-      </c>
-      <c r="JY1" t="s">
-        <v>142</v>
-      </c>
-      <c r="JZ1" t="s">
-        <v>144</v>
-      </c>
-      <c r="KA1" t="s">
-        <v>97</v>
-      </c>
-      <c r="KB1" t="s">
-        <v>98</v>
-      </c>
-      <c r="KC1" t="s">
-        <v>145</v>
-      </c>
-      <c r="KD1" t="s">
-        <v>123</v>
-      </c>
-      <c r="KE1" t="s">
-        <v>146</v>
-      </c>
-      <c r="KF1" t="s">
+      <c r="KN1" t="s">
+        <v>130</v>
+      </c>
+      <c r="KO1" t="s">
+        <v>127</v>
+      </c>
+      <c r="KP1" t="s">
+        <v>110</v>
+      </c>
+      <c r="KQ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="KR1" t="s">
         <v>147</v>
-      </c>
-      <c r="KG1" t="s">
-        <v>100</v>
-      </c>
-      <c r="KH1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="KI1" t="s">
-        <v>101</v>
-      </c>
-      <c r="KJ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="KK1" t="s">
-        <v>104</v>
-      </c>
-      <c r="KL1" t="s">
-        <v>105</v>
-      </c>
-      <c r="KM1" t="s">
-        <v>130</v>
-      </c>
-      <c r="KN1" t="s">
-        <v>131</v>
-      </c>
-      <c r="KO1" t="s">
-        <v>128</v>
-      </c>
-      <c r="KP1" t="s">
-        <v>111</v>
-      </c>
-      <c r="KQ1" t="s">
-        <v>149</v>
-      </c>
-      <c r="KR1" t="s">
-        <v>148</v>
       </c>
       <c r="KS1" t="s">
         <v>21</v>
       </c>
       <c r="KT1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="KU1" t="s">
+        <v>149</v>
+      </c>
+      <c r="KV1" t="s">
         <v>150</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KW1" t="s">
         <v>151</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KX1" t="s">
         <v>152</v>
       </c>
-      <c r="KX1" t="s">
-        <v>153</v>
-      </c>
       <c r="KY1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="KZ1" t="s">
         <v>9</v>
       </c>
       <c r="LA1" t="s">
+        <v>153</v>
+      </c>
+      <c r="LB1" t="s">
         <v>154</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LC1" t="s">
         <v>155</v>
       </c>
-      <c r="LC1" t="s">
-        <v>156</v>
-      </c>
       <c r="LD1" t="s">
+        <v>128</v>
+      </c>
+      <c r="LE1" t="s">
+        <v>214</v>
+      </c>
+      <c r="LF1" t="s">
+        <v>142</v>
+      </c>
+      <c r="LG1" t="s">
+        <v>95</v>
+      </c>
+      <c r="LH1" t="s">
+        <v>141</v>
+      </c>
+      <c r="LI1" t="s">
+        <v>143</v>
+      </c>
+      <c r="LJ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="LK1" t="s">
+        <v>97</v>
+      </c>
+      <c r="LL1" t="s">
+        <v>144</v>
+      </c>
+      <c r="LM1" t="s">
+        <v>122</v>
+      </c>
+      <c r="LN1" t="s">
+        <v>145</v>
+      </c>
+      <c r="LO1" t="s">
+        <v>146</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>99</v>
+      </c>
+      <c r="LQ1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>100</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>102</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>103</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>104</v>
+      </c>
+      <c r="LV1" t="s">
         <v>129</v>
       </c>
-      <c r="LE1" t="s">
-        <v>215</v>
-      </c>
-      <c r="LF1" t="s">
-        <v>143</v>
-      </c>
-      <c r="LG1" t="s">
-        <v>96</v>
-      </c>
-      <c r="LH1" t="s">
-        <v>142</v>
-      </c>
-      <c r="LI1" t="s">
-        <v>144</v>
-      </c>
-      <c r="LJ1" t="s">
-        <v>97</v>
-      </c>
-      <c r="LK1" t="s">
-        <v>98</v>
-      </c>
-      <c r="LL1" t="s">
-        <v>145</v>
-      </c>
-      <c r="LM1" t="s">
-        <v>123</v>
-      </c>
-      <c r="LN1" t="s">
-        <v>146</v>
-      </c>
-      <c r="LO1" t="s">
+      <c r="LW1" t="s">
+        <v>130</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>110</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="MA1" t="s">
         <v>147</v>
-      </c>
-      <c r="LP1" t="s">
-        <v>100</v>
-      </c>
-      <c r="LQ1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="LR1" t="s">
-        <v>101</v>
-      </c>
-      <c r="LS1" t="s">
-        <v>103</v>
-      </c>
-      <c r="LT1" t="s">
-        <v>104</v>
-      </c>
-      <c r="LU1" t="s">
-        <v>105</v>
-      </c>
-      <c r="LV1" t="s">
-        <v>130</v>
-      </c>
-      <c r="LW1" t="s">
-        <v>131</v>
-      </c>
-      <c r="LX1" t="s">
-        <v>128</v>
-      </c>
-      <c r="LY1" t="s">
-        <v>111</v>
-      </c>
-      <c r="LZ1" t="s">
-        <v>149</v>
-      </c>
-      <c r="MA1" t="s">
-        <v>148</v>
       </c>
       <c r="MB1" t="s">
         <v>21</v>
       </c>
       <c r="MC1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="MD1" t="s">
+        <v>149</v>
+      </c>
+      <c r="ME1" t="s">
         <v>150</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MF1" t="s">
         <v>151</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MG1" t="s">
         <v>152</v>
       </c>
-      <c r="MG1" t="s">
-        <v>153</v>
-      </c>
       <c r="MH1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="MI1" t="s">
         <v>9</v>
       </c>
       <c r="MJ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="MK1" t="s">
         <v>154</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="ML1" t="s">
         <v>155</v>
       </c>
-      <c r="ML1" t="s">
-        <v>156</v>
-      </c>
       <c r="MM1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:351" x14ac:dyDescent="0.35">
@@ -2841,46 +2838,46 @@
         <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>13</v>
@@ -2889,13 +2886,13 @@
         <v>40</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>46</v>
@@ -2904,64 +2901,64 @@
         <v>20</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AL3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="AM3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="AN3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>134</v>
-      </c>
       <c r="AQ3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AT3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AU3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY3" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AZ3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="BA3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BB3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BD3" s="5" t="s">
         <v>46</v>
@@ -2970,64 +2967,64 @@
         <v>20</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BS3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BV3" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BW3" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CA3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CC3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CD3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CE3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="CF3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CH3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CI3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CJ3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CK3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CL3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CM3" s="5" t="s">
         <v>46</v>
@@ -3036,49 +3033,49 @@
         <v>20</v>
       </c>
       <c r="CR3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="DB3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="DC3" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="DD3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="DE3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="DH3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="DF3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="DG3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="DH3" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="DI3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="DJ3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="DL3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DM3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="DN3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="DO3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DP3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DQ3" s="7" t="s">
         <v>13</v>
@@ -3087,13 +3084,13 @@
         <v>19</v>
       </c>
       <c r="DS3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="DT3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="DU3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="DV3" s="5" t="s">
         <v>46</v>
@@ -3102,64 +3099,64 @@
         <v>20</v>
       </c>
       <c r="EA3" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="EK3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="EL3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="EM3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="EN3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="EO3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EP3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EQ3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="ER3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="ES3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EU3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EV3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="EW3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="EX3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EY3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EZ3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="FA3" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="FB3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="FC3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="FD3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="FE3" s="5" t="s">
         <v>46</v>
@@ -3168,64 +3165,64 @@
         <v>20</v>
       </c>
       <c r="FJ3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="FT3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="FU3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="FV3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FW3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="FX3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="FY3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="FZ3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="FX3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="FY3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="FZ3" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="GA3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="GB3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="GD3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="GE3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="GF3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="GG3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="GH3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="GI3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="GJ3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="GK3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="GL3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="GM3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="GN3" s="5" t="s">
         <v>46</v>
@@ -3234,40 +3231,40 @@
         <v>20</v>
       </c>
       <c r="GS3" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="HC3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="HD3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="HE3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="HF3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="HG3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="HH3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="HI3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="HJ3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="HK3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="HM3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="HN3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="HO3" s="5" t="s">
         <v>14</v>
@@ -3276,22 +3273,22 @@
         <v>14</v>
       </c>
       <c r="HQ3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="HR3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="HS3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="HT3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="HU3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="HV3" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="HW3" s="5" t="s">
         <v>46</v>
@@ -3300,40 +3297,40 @@
         <v>20</v>
       </c>
       <c r="IB3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="IL3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="IM3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="IN3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="IO3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="IP3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="IQ3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="IR3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="IP3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="IQ3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="IR3" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="IS3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="IT3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="IV3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="IW3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="IX3" s="5" t="s">
         <v>14</v>
@@ -3342,22 +3339,22 @@
         <v>14</v>
       </c>
       <c r="IZ3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="JA3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="JB3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="JC3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="JD3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="JE3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="JF3" s="5" t="s">
         <v>46</v>
@@ -3366,40 +3363,40 @@
         <v>20</v>
       </c>
       <c r="JK3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="JU3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="JV3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="JW3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="JX3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="JY3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="JZ3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="KA3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="KB3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="KC3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="KE3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="KF3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="KG3" s="5" t="s">
         <v>14</v>
@@ -3408,22 +3405,22 @@
         <v>14</v>
       </c>
       <c r="KI3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="KJ3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="KK3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="KL3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="KM3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="KN3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="KO3" s="5" t="s">
         <v>46</v>
@@ -3432,40 +3429,40 @@
         <v>20</v>
       </c>
       <c r="KT3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="LD3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="LE3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="LF3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="LG3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="LH3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="LI3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="LJ3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="LH3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="LI3" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="LJ3" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="LK3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="LL3" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="LN3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="LO3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="LP3" s="5" t="s">
         <v>14</v>
@@ -3474,7 +3471,7 @@
         <v>14</v>
       </c>
       <c r="LR3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="LS3" s="5" t="s">
         <v>13</v>
@@ -3483,13 +3480,13 @@
         <v>46</v>
       </c>
       <c r="LU3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="LV3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="LW3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="LX3" s="5" t="s">
         <v>46</v>
@@ -3498,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="MC3" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="MM3" s="14" t="s">
         <v>11</v>
@@ -3525,106 +3522,106 @@
   <sheetData>
     <row r="1" spans="1:35" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="AC1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AE1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AG1" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="AH1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>10</v>
@@ -3632,10 +3629,10 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>20</v>
@@ -3664,22 +3661,22 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3699,79 +3696,79 @@
   <sheetData>
     <row r="1" spans="1:28" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>175</v>
-      </c>
       <c r="N1" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>35</v>
@@ -3788,31 +3785,31 @@
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>38</v>
@@ -3856,7 +3853,7 @@
     </row>
     <row r="3" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>33</v>
@@ -3870,10 +3867,10 @@
     </row>
     <row r="4" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
       <c r="W4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>36</v>
@@ -3911,25 +3908,25 @@
         <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3943,24 +3940,24 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>33</v>
@@ -3969,7 +3966,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -3987,7 +3984,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4000,13 +3997,13 @@
         <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4017,13 +4014,13 @@
         <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4034,13 +4031,13 @@
         <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4066,25 +4063,25 @@
         <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4098,19 +4095,19 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4130,16 +4127,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="E1" s="13"/>
     </row>
@@ -4174,7 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E53027-D0B2-46A6-ABD5-13416747B396}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -4182,25 +4179,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
-      </c>
-      <c r="G1" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4221,12 +4218,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4246,16 +4243,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -4301,7 +4298,7 @@
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4350,25 +4347,25 @@
         <v>1</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -4401,12 +4398,12 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="N2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -4430,25 +4427,25 @@
         <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -4490,10 +4487,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -4501,13 +4498,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -4515,16 +4512,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4544,54 +4541,54 @@
   <sheetData>
     <row r="1" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -4600,30 +4597,30 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4632,26 +4629,26 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4672,60 +4669,60 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4737,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40042B2-BF90-46A5-A720-AE7134173A42}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4766,109 +4763,109 @@
         <v>23</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="Z1" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="AA1" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF1" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="AG1" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="AJ1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="AL1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AN1" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="AO1" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AP1" s="7" t="s">
         <v>10</v>
@@ -4879,7 +4876,7 @@
     </row>
     <row r="2" spans="1:43" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
@@ -4894,22 +4891,22 @@
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P2" s="7"/>
       <c r="AD2" s="7" t="s">
@@ -4948,7 +4945,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4959,92 +4956,92 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -5057,38 +5054,38 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5101,7 +5098,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5111,75 +5108,75 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -5187,10 +5184,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -5203,32 +5200,32 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
